--- a/INTLINE/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
+++ b/INTLINE/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MJT2"/>
+  <dimension ref="A1:MKL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45694,15 +45694,105 @@
       </c>
       <c r="MJR1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="MJS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="MJT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="MJU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-11</t>
+        </is>
+      </c>
+      <c r="MJV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="MJW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-13</t>
+        </is>
+      </c>
+      <c r="MJX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+      <c r="MJY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-19</t>
+        </is>
+      </c>
+      <c r="MJZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-20</t>
+        </is>
+      </c>
+      <c r="MKA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
+      </c>
+      <c r="MKB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
+      </c>
+      <c r="MKC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
+        </is>
+      </c>
+      <c r="MKD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
+        </is>
+      </c>
+      <c r="MKE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-27</t>
+        </is>
+      </c>
+      <c r="MKF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="MKG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
+      <c r="MKH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-02</t>
+        </is>
+      </c>
+      <c r="MKI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="MKJ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="MJS1" s="1" t="inlineStr">
+      <c r="MKK1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="MJT1" s="1" t="inlineStr">
+      <c r="MKL1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -72422,17 +72512,71 @@
       <c r="MJQ2" t="n">
         <v>6645.51</v>
       </c>
-      <c r="MJR2" t="inlineStr">
+      <c r="MJR2" t="n">
+        <v>6498.83</v>
+      </c>
+      <c r="MJS2" t="n">
+        <v>6461.68</v>
+      </c>
+      <c r="MJT2" t="n">
+        <v>6548.22</v>
+      </c>
+      <c r="MJU2" t="n">
+        <v>6555.81</v>
+      </c>
+      <c r="MJV2" t="n">
+        <v>6537.41</v>
+      </c>
+      <c r="MJW2" t="n">
+        <v>6542.14</v>
+      </c>
+      <c r="MJX2" t="n">
+        <v>6589.35</v>
+      </c>
+      <c r="MJY2" t="n">
+        <v>6534.79</v>
+      </c>
+      <c r="MJZ2" t="n">
+        <v>6624.91</v>
+      </c>
+      <c r="MKA2" t="n">
+        <v>6715.1</v>
+      </c>
+      <c r="MKB2" t="n">
+        <v>6581.42</v>
+      </c>
+      <c r="MKC2" t="n">
+        <v>6449.38</v>
+      </c>
+      <c r="MKD2" t="n">
+        <v>6414.57</v>
+      </c>
+      <c r="MKE2" t="n">
+        <v>6445.26</v>
+      </c>
+      <c r="MKF2" t="n">
+        <v>6508.14</v>
+      </c>
+      <c r="MKG2" t="n">
+        <v>6533.77</v>
+      </c>
+      <c r="MKH2" t="n">
+        <v>6425.61</v>
+      </c>
+      <c r="MKI2" t="n">
+        <v>6476.18</v>
+      </c>
+      <c r="MKJ2" t="inlineStr">
         <is>
           <t>CAC40</t>
         </is>
       </c>
-      <c r="MJS2" t="inlineStr">
+      <c r="MKK2" t="inlineStr">
         <is>
           <t>CAC 40 Price Index, Close Price</t>
         </is>
       </c>
-      <c r="MJT2" t="inlineStr">
+      <c r="MKL2" t="inlineStr">
         <is>
           <t>Index: 1987.12.31=1000</t>
         </is>

--- a/INTLINE/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
+++ b/INTLINE/data/132/EPSE/CAC 40 Price Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MLU2"/>
+  <dimension ref="A1:MLY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45959,15 +45959,35 @@
       </c>
       <c r="MLS1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="MLT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="MLU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="MLV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="MLW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="MLT1" s="1" t="inlineStr">
+      <c r="MLX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="MLU1" s="1" t="inlineStr">
+      <c r="MLY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -72846,17 +72866,29 @@
       <c r="MLR2" t="n">
         <v>5964.66</v>
       </c>
-      <c r="MLS2" t="inlineStr">
+      <c r="MLS2" t="n">
+        <v>5916.63</v>
+      </c>
+      <c r="MLT2" t="n">
+        <v>5883.33</v>
+      </c>
+      <c r="MLU2" t="n">
+        <v>6073.35</v>
+      </c>
+      <c r="MLV2" t="n">
+        <v>6047.31</v>
+      </c>
+      <c r="MLW2" t="inlineStr">
         <is>
           <t>CAC40</t>
         </is>
       </c>
-      <c r="MLT2" t="inlineStr">
+      <c r="MLX2" t="inlineStr">
         <is>
           <t>CAC 40 Price Index, Close Price</t>
         </is>
       </c>
-      <c r="MLU2" t="inlineStr">
+      <c r="MLY2" t="inlineStr">
         <is>
           <t>Index: 1987.12.31=1000</t>
         </is>
